--- a/examples/vfs_dedupe_file_range_v6.5.15/dedupe_file_range_v6.15.6_dataset.xlsx
+++ b/examples/vfs_dedupe_file_range_v6.5.15/dedupe_file_range_v6.15.6_dataset.xlsx
@@ -43,8 +43,7 @@
     <t xml:space="preserve">1562d948232546cfad45a1beddc70fe0c7b34950</t>
   </si>
   <si>
-    <t xml:space="preserve">/src/SyzDirect/examples/vfs_dedupe_file_range_v6.5.15
-/v6.5.15-syzkaller-btrfs-xfs.config</t>
+    <t xml:space="preserve">/src/SyzDirect/examples/vfs_dedupe_file_range_v6.5.15/v6.5.15-syzkaller-btrfs-xfs.config</t>
   </si>
 </sst>
 </file>
